--- a/Data/EC/NIT-9013893581.xlsx
+++ b/Data/EC/NIT-9013893581.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D65385D1-DA5C-42CD-B952-B4317ABF8A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3E510E1-E276-4813-8BCE-F87300247C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{20342F49-BAF4-41A3-B727-3E48EC99E844}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CC6ABE50-04AE-45AC-A3DC-9BA3D44608E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,73 +65,82 @@
     <t>CC</t>
   </si>
   <si>
+    <t>33358270</t>
+  </si>
+  <si>
+    <t>KELIS PAOLA PEREZ JINETE</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>1143378290</t>
+  </si>
+  <si>
+    <t>LUIS ALFONSO PEREZ GARCIA</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>1044926865</t>
+  </si>
+  <si>
+    <t>JESUS ALBERTO CASTRO CHAMORRO</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
     <t>1044910398</t>
   </si>
   <si>
     <t>MARIA CAMILA OROZCO CUETO</t>
   </si>
   <si>
+    <t>2107</t>
+  </si>
+  <si>
     <t>2106</t>
   </si>
   <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>1044926865</t>
-  </si>
-  <si>
-    <t>JESUS ALBERTO CASTRO CHAMORRO</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
     <t>1002060706</t>
   </si>
   <si>
     <t>DANIEL BLANCO OJEDA</t>
   </si>
   <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
     <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>1143378290</t>
-  </si>
-  <si>
-    <t>LUIS ALFONSO PEREZ GARCIA</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -545,7 +554,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81C77312-6259-0F54-37B0-95F731C1F7DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{263A8D13-D78E-D9E8-0C57-E96C37B8A685}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -896,8 +905,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D633B26C-E049-4404-9B2E-A9139AC3B5BF}">
-  <dimension ref="B2:J36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18203B46-F15D-4093-9576-51B7198AF86E}">
+  <dimension ref="B2:J38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -921,7 +930,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -966,7 +975,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -998,12 +1007,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>964682</v>
+        <v>1046580</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1014,17 +1023,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C13" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F13" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1051,13 +1060,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1074,10 +1083,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>36341</v>
+        <v>1898</v>
       </c>
       <c r="G16" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1088,19 +1097,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>36341</v>
+        <v>80000</v>
       </c>
       <c r="G17" s="18">
-        <v>908526</v>
+        <v>2000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1111,19 +1120,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="E18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F18" s="18">
-        <v>84000</v>
+        <v>80000</v>
       </c>
       <c r="G18" s="18">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1134,19 +1143,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>14</v>
-      </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
-        <v>84000</v>
+        <v>80000</v>
       </c>
       <c r="G19" s="18">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1157,19 +1166,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>14</v>
-      </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="G20" s="18">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1180,19 +1189,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
-        <v>52000</v>
+        <v>80000</v>
       </c>
       <c r="G21" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1203,19 +1212,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F22" s="18">
-        <v>52000</v>
+        <v>80000</v>
       </c>
       <c r="G22" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1226,19 +1235,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F23" s="18">
-        <v>52000</v>
+        <v>80000</v>
       </c>
       <c r="G23" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1249,13 +1258,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
         <v>48000</v>
@@ -1272,19 +1281,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F25" s="18">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="G25" s="18">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1295,19 +1304,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D26" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="F26" s="18">
-        <v>80000</v>
+        <v>84000</v>
       </c>
       <c r="G26" s="18">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1318,19 +1327,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F27" s="18">
-        <v>80000</v>
+        <v>84000</v>
       </c>
       <c r="G27" s="18">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1341,19 +1350,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F28" s="18">
-        <v>80000</v>
+        <v>36341</v>
       </c>
       <c r="G28" s="18">
-        <v>2000000</v>
+        <v>908526</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1364,75 +1373,121 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F29" s="18">
-        <v>80000</v>
+        <v>36341</v>
       </c>
       <c r="G29" s="18">
-        <v>2000000</v>
+        <v>908526</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="22" t="s">
+      <c r="B30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="24">
-        <v>80000</v>
-      </c>
-      <c r="G30" s="24">
-        <v>2000000</v>
-      </c>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="32"/>
-      <c r="H35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="32"/>
-      <c r="H36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="E30" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G30" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G31" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="24">
+        <v>52000</v>
+      </c>
+      <c r="G32" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="26"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="32"/>
+      <c r="H37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="32"/>
+      <c r="H38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H37:J37"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9013893581.xlsx
+++ b/Data/EC/NIT-9013893581.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3E510E1-E276-4813-8BCE-F87300247C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1F61F3A-589D-4C4C-8F3B-3143A0F2175B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CC6ABE50-04AE-45AC-A3DC-9BA3D44608E8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DB13FA9A-59D7-4080-B53E-8413134CF34F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,82 +65,79 @@
     <t>CC</t>
   </si>
   <si>
-    <t>33358270</t>
-  </si>
-  <si>
-    <t>KELIS PAOLA PEREZ JINETE</t>
+    <t>1044910398</t>
+  </si>
+  <si>
+    <t>MARIA CAMILA OROZCO CUETO</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>1044926865</t>
+  </si>
+  <si>
+    <t>JESUS ALBERTO CASTRO CHAMORRO</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>1002060706</t>
+  </si>
+  <si>
+    <t>DANIEL BLANCO OJEDA</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>1143378290</t>
+  </si>
+  <si>
+    <t>LUIS ALFONSO PEREZ GARCIA</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>1143378290</t>
-  </si>
-  <si>
-    <t>LUIS ALFONSO PEREZ GARCIA</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>1044926865</t>
-  </si>
-  <si>
-    <t>JESUS ALBERTO CASTRO CHAMORRO</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>1044910398</t>
-  </si>
-  <si>
-    <t>MARIA CAMILA OROZCO CUETO</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>1002060706</t>
-  </si>
-  <si>
-    <t>DANIEL BLANCO OJEDA</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -239,7 +236,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -252,9 +251,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -454,23 +451,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -498,10 +495,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -554,7 +551,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{263A8D13-D78E-D9E8-0C57-E96C37B8A685}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84050DB4-2CB0-0B2D-ED80-4ABF2419C8FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -905,7 +902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18203B46-F15D-4093-9576-51B7198AF86E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052BDEDB-0617-4CA4-B1B4-4DAF820E24F5}">
   <dimension ref="B2:J38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -930,7 +927,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -975,7 +972,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1007,12 +1004,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1046580</v>
+        <v>1124682</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1023,17 +1020,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1060,13 +1057,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1083,10 +1080,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>1898</v>
+        <v>36341</v>
       </c>
       <c r="G16" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1097,19 +1094,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>80000</v>
+        <v>36341</v>
       </c>
       <c r="G17" s="18">
-        <v>2000000</v>
+        <v>908526</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1120,19 +1117,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>80000</v>
+        <v>84000</v>
       </c>
       <c r="G18" s="18">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1143,19 +1140,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>80000</v>
+        <v>84000</v>
       </c>
       <c r="G19" s="18">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1166,19 +1163,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="G20" s="18">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1189,19 +1186,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
-        <v>80000</v>
+        <v>52000</v>
       </c>
       <c r="G21" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1212,19 +1209,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F22" s="18">
-        <v>80000</v>
+        <v>52000</v>
       </c>
       <c r="G22" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1235,19 +1232,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F23" s="18">
-        <v>80000</v>
+        <v>52000</v>
       </c>
       <c r="G23" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1258,13 +1255,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F24" s="18">
         <v>48000</v>
@@ -1281,19 +1278,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F25" s="18">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="G25" s="18">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1304,19 +1301,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F26" s="18">
-        <v>84000</v>
+        <v>80000</v>
       </c>
       <c r="G26" s="18">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1327,19 +1324,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F27" s="18">
-        <v>84000</v>
+        <v>80000</v>
       </c>
       <c r="G27" s="18">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1350,19 +1347,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F28" s="18">
-        <v>36341</v>
+        <v>80000</v>
       </c>
       <c r="G28" s="18">
-        <v>908526</v>
+        <v>2000000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1373,19 +1370,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F29" s="18">
-        <v>36341</v>
+        <v>80000</v>
       </c>
       <c r="G29" s="18">
-        <v>908526</v>
+        <v>2000000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1396,19 +1393,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D30" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="F30" s="18">
-        <v>52000</v>
+        <v>80000</v>
       </c>
       <c r="G30" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1419,19 +1416,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F31" s="18">
-        <v>52000</v>
+        <v>80000</v>
       </c>
       <c r="G31" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1442,19 +1439,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F32" s="24">
-        <v>52000</v>
+        <v>80000</v>
       </c>
       <c r="G32" s="24">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H32" s="25"/>
       <c r="I32" s="25"/>
@@ -1462,22 +1459,22 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" s="32"/>
       <c r="H37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" s="32"/>
       <c r="H38" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
